--- a/www/input/bubbleplot.xlsx
+++ b/www/input/bubbleplot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bzhang1/github/quickr/www/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F920C6AC-64D5-934E-87C0-B2D05090FAE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EC205D-31C9-CC43-A6B0-1107A553CE3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28300" yWindow="10540" windowWidth="35200" windowHeight="19720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24960" yWindow="10540" windowWidth="35200" windowHeight="19720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
   <si>
     <t>Medgrowth</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>Purples 3r</t>
+  </si>
+  <si>
+    <t>fig.1.width</t>
+  </si>
+  <si>
+    <t>fig.1.height</t>
   </si>
 </sst>
 </file>
@@ -1527,24 +1533,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61234EA7-4845-804C-9464-7E18B264A489}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="42.6640625" customWidth="1"/>
-    <col min="2" max="2" width="49.6640625" customWidth="1"/>
+    <col min="2" max="2" width="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19">
-      <c r="A1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1">
+        <v>8</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
@@ -1557,11 +1563,11 @@
       <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:9" ht="19">
-      <c r="A2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -1575,10 +1581,10 @@
     </row>
     <row r="3" spans="1:9" ht="19">
       <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
@@ -1591,11 +1597,11 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="19">
-      <c r="A4" s="2" t="s">
-        <v>27</v>
+      <c r="A4" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1604,11 +1610,11 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="19">
-      <c r="A5" s="1" t="s">
-        <v>28</v>
+      <c r="A5" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1618,10 +1624,10 @@
     </row>
     <row r="6" spans="1:9" ht="19">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1630,11 +1636,11 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="19">
-      <c r="A7" s="2" t="s">
-        <v>31</v>
+      <c r="A7" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1643,11 +1649,11 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="19">
-      <c r="A8" s="1" t="s">
-        <v>33</v>
+      <c r="A8" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1657,10 +1663,10 @@
     </row>
     <row r="9" spans="1:9" ht="19">
       <c r="A9" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1670,10 +1676,10 @@
     </row>
     <row r="10" spans="1:9" ht="19">
       <c r="A10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1682,11 +1688,11 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="19">
-      <c r="A11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>37</v>
+      <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1696,10 +1702,10 @@
     </row>
     <row r="12" spans="1:9" ht="19">
       <c r="A12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1708,8 +1714,12 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="19">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1717,8 +1727,12 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="19">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1878,9 +1892,17 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
+    <row r="32" spans="1:7" ht="19">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" ht="19">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12" xr:uid="{31962D02-66B6-5643-A592-9CB59266FE44}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14" xr:uid="{31962D02-66B6-5643-A592-9CB59266FE44}">
       <formula1>$D$1:$D$3</formula1>
     </dataValidation>
   </dataValidations>

--- a/www/input/bubbleplot.xlsx
+++ b/www/input/bubbleplot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bzhang1/github/quickr/www/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EC205D-31C9-CC43-A6B0-1107A553CE3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F26A56-1AC4-0B40-856A-447F1163F1AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24960" yWindow="10540" windowWidth="35200" windowHeight="19720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,9 +116,6 @@
     <t>Employment in 2012 (thousands)</t>
   </si>
   <si>
-    <t>file.by.legend.name</t>
-  </si>
-  <si>
     <t>Per cent with tertiary degree</t>
   </si>
   <si>
@@ -159,6 +156,9 @@
   </si>
   <si>
     <t>fig.1.height</t>
+  </si>
+  <si>
+    <t>fill.by.legend.name</t>
   </si>
 </sst>
 </file>
@@ -1536,7 +1536,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1547,14 +1547,14 @@
   <sheetData>
     <row r="1" spans="1:9" ht="19">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1">
         <v>8</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -1564,14 +1564,14 @@
     </row>
     <row r="2" spans="1:9" ht="19">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>6</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="14"/>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="8"/>
@@ -1663,10 +1663,10 @@
     </row>
     <row r="9" spans="1:9" ht="19">
       <c r="A9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1676,10 +1676,10 @@
     </row>
     <row r="10" spans="1:9" ht="19">
       <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1689,10 +1689,10 @@
     </row>
     <row r="11" spans="1:9" ht="19">
       <c r="A11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1702,10 +1702,10 @@
     </row>
     <row r="12" spans="1:9" ht="19">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="13" spans="1:9" ht="19">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1728,10 +1728,10 @@
     </row>
     <row r="14" spans="1:9" ht="19">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
